--- a/trunk/report/Benchmark Report.xlsx
+++ b/trunk/report/Benchmark Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>ATI HD 6950</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>160M</t>
+  </si>
+  <si>
+    <t>Nvidia GeForce GTX 590</t>
+  </si>
+  <si>
+    <t>Intel Core i7-2600 3.4 GHz</t>
   </si>
 </sst>
 </file>
@@ -140,7 +146,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-BE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -192,34 +198,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300000</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600000</c:v>
+                  <c:v>65536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700000</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800000</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900000</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000000</c:v>
+                  <c:v>1048576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -230,36 +236,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6435556.4493828397</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13726909.568621142</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13726909.568621142</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13726909.568621142</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17187263.968848083</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17187263.968848083</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17187263.968848083</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16639719.20473842</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16639719.20473842</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16639719.20473842</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -281,34 +257,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300000</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600000</c:v>
+                  <c:v>65536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700000</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800000</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900000</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000000</c:v>
+                  <c:v>1048576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -319,36 +295,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>27852072</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38957268</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47699320</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53811976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54902924</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>61612888</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63421960</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66233124</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65642424</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70130864</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -358,7 +304,7 @@
           <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>FX 380</c:v>
+            <c:v>GTX 590</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -370,34 +316,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300000</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600000</c:v>
+                  <c:v>65536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700000</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800000</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900000</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000000</c:v>
+                  <c:v>1048576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,34 +355,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4898355</c:v>
+                  <c:v>914800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4911885</c:v>
+                  <c:v>3990991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5249818</c:v>
+                  <c:v>7759892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5286860</c:v>
+                  <c:v>14944608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5408411</c:v>
+                  <c:v>26220458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5446804</c:v>
+                  <c:v>40584988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5415477</c:v>
+                  <c:v>49819564</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5461223</c:v>
+                  <c:v>66621700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5496776</c:v>
+                  <c:v>73909248</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5460615</c:v>
+                  <c:v>86234552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -459,34 +405,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300000</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600000</c:v>
+                  <c:v>65536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700000</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800000</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900000</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000000</c:v>
+                  <c:v>1048576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,34 +444,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4322939</c:v>
+                  <c:v>551487</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4938897</c:v>
+                  <c:v>1587425</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5011367</c:v>
+                  <c:v>2356848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4979556</c:v>
+                  <c:v>2380844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4983593</c:v>
+                  <c:v>3170200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5073276</c:v>
+                  <c:v>4053853</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5083435</c:v>
+                  <c:v>4699416</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5091282</c:v>
+                  <c:v>4958740</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5112421</c:v>
+                  <c:v>5262359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5078238</c:v>
+                  <c:v>5144295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,11 +488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104956288"/>
-        <c:axId val="104957824"/>
+        <c:axId val="95476736"/>
+        <c:axId val="95478528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104956288"/>
+        <c:axId val="95476736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,7 +502,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104957824"/>
+        <c:crossAx val="95478528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -564,7 +510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104957824"/>
+        <c:axId val="95478528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,7 +540,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104956288"/>
+        <c:crossAx val="95476736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -619,7 +565,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-BE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -693,36 +639,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6435556.4493828397</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13726909.568621142</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13726909.568621142</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13726909.568621142</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17187263.968848083</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17187263.968848083</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17187263.968848083</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16639719.20473842</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16639719.20473842</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16639719.20473842</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -781,36 +697,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>27852072</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38957268</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47699320</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53811976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54902924</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>61612888</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63421960</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66233124</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65642424</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70130864</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -870,34 +756,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4898355</c:v>
+                  <c:v>914800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4911885</c:v>
+                  <c:v>3990991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5249818</c:v>
+                  <c:v>7759892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5286860</c:v>
+                  <c:v>14944608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5408411</c:v>
+                  <c:v>26220458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5446804</c:v>
+                  <c:v>40584988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5415477</c:v>
+                  <c:v>49819564</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5461223</c:v>
+                  <c:v>66621700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5496776</c:v>
+                  <c:v>73909248</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5460615</c:v>
+                  <c:v>86234552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,34 +844,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4322939</c:v>
+                  <c:v>551487</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4938897</c:v>
+                  <c:v>1587425</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5011367</c:v>
+                  <c:v>2356848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4979556</c:v>
+                  <c:v>2380844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4983593</c:v>
+                  <c:v>3170200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5073276</c:v>
+                  <c:v>4053853</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5083435</c:v>
+                  <c:v>4699416</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5091282</c:v>
+                  <c:v>4958740</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5112421</c:v>
+                  <c:v>5262359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5078238</c:v>
+                  <c:v>5144295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,11 +888,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105784064"/>
-        <c:axId val="105785600"/>
+        <c:axId val="99503488"/>
+        <c:axId val="99517568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105784064"/>
+        <c:axId val="99503488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +901,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105785600"/>
+        <c:crossAx val="99517568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1023,7 +909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105785600"/>
+        <c:axId val="99517568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +939,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105784064"/>
+        <c:crossAx val="99503488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1432,7 +1318,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,174 +1334,122 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>100000</v>
+        <v>1024</v>
       </c>
       <c r="C2">
-        <v>200000</v>
+        <v>4096</v>
       </c>
       <c r="D2">
-        <v>300000</v>
+        <v>8192</v>
       </c>
       <c r="E2">
-        <v>400000</v>
+        <v>16384</v>
       </c>
       <c r="F2">
-        <v>500000</v>
+        <v>32768</v>
       </c>
       <c r="G2">
-        <v>600000</v>
+        <v>65536</v>
       </c>
       <c r="H2">
-        <v>700000</v>
+        <v>131072</v>
       </c>
       <c r="I2">
-        <v>800000</v>
+        <v>262144</v>
       </c>
       <c r="J2">
-        <v>900000</v>
+        <v>524288</v>
       </c>
       <c r="K2">
-        <v>1000000</v>
+        <v>1048576</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>6435556.4493828397</v>
-      </c>
-      <c r="C3">
-        <v>13726909.568621142</v>
-      </c>
-      <c r="D3">
-        <v>13726909.568621142</v>
-      </c>
-      <c r="E3">
-        <v>13726909.568621142</v>
-      </c>
-      <c r="F3">
-        <v>17187263.968848083</v>
-      </c>
-      <c r="G3">
-        <v>17187263.968848083</v>
-      </c>
-      <c r="H3">
-        <v>17187263.968848083</v>
-      </c>
-      <c r="I3">
-        <v>16639719.20473842</v>
-      </c>
-      <c r="J3">
-        <v>16639719.20473842</v>
-      </c>
-      <c r="K3">
-        <v>16639719.20473842</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <v>27852072</v>
-      </c>
-      <c r="C5">
-        <v>38957268</v>
-      </c>
-      <c r="D5">
-        <v>47699320</v>
-      </c>
-      <c r="E5" s="2">
-        <v>53811976</v>
-      </c>
-      <c r="F5" s="2">
-        <v>54902924</v>
-      </c>
-      <c r="G5" s="2">
-        <v>61612888</v>
-      </c>
-      <c r="H5" s="2">
-        <v>63421960</v>
-      </c>
-      <c r="I5" s="2">
-        <v>66233124</v>
-      </c>
-      <c r="J5" s="2">
-        <v>65642424</v>
-      </c>
-      <c r="K5" s="2">
-        <v>70130864</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>4898355</v>
+        <v>914800</v>
       </c>
       <c r="C6">
-        <v>4911885</v>
+        <v>3990991</v>
       </c>
       <c r="D6">
-        <v>5249818</v>
+        <v>7759892</v>
       </c>
       <c r="E6">
-        <v>5286860</v>
+        <v>14944608</v>
       </c>
       <c r="F6">
-        <v>5408411</v>
+        <v>26220458</v>
       </c>
       <c r="G6">
-        <v>5446804</v>
+        <v>40584988</v>
       </c>
       <c r="H6">
-        <v>5415477</v>
+        <v>49819564</v>
       </c>
       <c r="I6">
-        <v>5461223</v>
+        <v>66621700</v>
       </c>
       <c r="J6">
-        <v>5496776</v>
+        <v>73909248</v>
       </c>
       <c r="K6">
-        <v>5460615</v>
+        <v>86234552</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>4322939</v>
+        <v>551487</v>
       </c>
       <c r="C8">
-        <v>4938897</v>
+        <v>1587425</v>
       </c>
       <c r="D8">
-        <v>5011367</v>
+        <v>2356848</v>
       </c>
       <c r="E8">
-        <v>4979556</v>
+        <v>2380844</v>
       </c>
       <c r="F8">
-        <v>4983593</v>
+        <v>3170200</v>
       </c>
       <c r="G8">
-        <v>5073276</v>
+        <v>4053853</v>
       </c>
       <c r="H8">
-        <v>5083435</v>
+        <v>4699416</v>
       </c>
       <c r="I8">
-        <v>5091282</v>
+        <v>4958740</v>
       </c>
       <c r="J8">
-        <v>5112421</v>
+        <v>5262359</v>
       </c>
       <c r="K8">
-        <v>5078238</v>
+        <v>5144295</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
